--- a/output.xlsx
+++ b/output.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,9 +26,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -40,8 +40,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF4472C4"/>
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -64,7 +64,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -429,21 +429,26 @@
   </sheetPr>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="4"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="40" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="7"/>
-    <col width="12" customWidth="1" min="8" max="12"/>
-    <col width="13.26953125" customWidth="1" min="13" max="13"/>
-    <col width="20.36328125" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
